--- a/Digital methods exam/Parish book Sonderborg.xlsx
+++ b/Digital methods exam/Parish book Sonderborg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Digital methods exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F00BF6-4684-4679-A5C7-0ABA3FE4CECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB92B2-2C22-4F7B-9AD7-3E84C9820E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,12 +68,6 @@
     <t>31-06-1915</t>
   </si>
   <si>
-    <t>17/04/1843</t>
-  </si>
-  <si>
-    <t>24/09/1838</t>
-  </si>
-  <si>
     <t>16.05.1909</t>
   </si>
   <si>
@@ -1662,6 +1656,12 @@
   </si>
   <si>
     <t>09.11.1863</t>
+  </si>
+  <si>
+    <t>24.09.1838</t>
+  </si>
+  <si>
+    <t>17.04.1843</t>
   </si>
 </sst>
 </file>
@@ -1706,11 +1706,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2029,7 +2030,7 @@
   <dimension ref="A1:G570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2066,8 +2067,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>3661</v>
@@ -2089,8 +2090,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="4" t="s">
+        <v>542</v>
       </c>
       <c r="C3" s="1">
         <v>3662</v>
@@ -2112,8 +2113,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>3671</v>
@@ -2135,8 +2136,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
+      <c r="B5" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="C5" s="1">
         <v>3671</v>
@@ -2158,8 +2159,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>3675</v>
@@ -2181,8 +2182,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>3683</v>
@@ -2204,8 +2205,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>3684</v>
@@ -2227,8 +2228,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>3689</v>
@@ -2250,8 +2251,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>3694</v>
@@ -2273,8 +2274,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>3695</v>
@@ -2296,7 +2297,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1">
@@ -2319,8 +2320,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>3701</v>
@@ -2342,8 +2343,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
+      <c r="B14" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>3705</v>
@@ -2365,8 +2366,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
+      <c r="B15" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>3723</v>
@@ -2388,7 +2389,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1">
@@ -2411,8 +2412,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <v>3761</v>
@@ -2434,8 +2435,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <v>3770</v>
@@ -2457,8 +2458,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="1">
         <v>3774</v>
@@ -2480,8 +2481,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="1">
         <v>3777</v>
@@ -2503,8 +2504,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>28</v>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>3780</v>
@@ -2526,8 +2527,8 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <v>3786</v>
@@ -2549,8 +2550,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C23" s="1">
         <v>3797</v>
@@ -2572,8 +2573,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C24" s="1">
         <v>3802</v>
@@ -2595,8 +2596,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>32</v>
+      <c r="B25" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>3812</v>
@@ -2618,8 +2619,8 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>33</v>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C26" s="1">
         <v>3813</v>
@@ -2641,8 +2642,8 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>34</v>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C27" s="1">
         <v>3821</v>
@@ -2664,8 +2665,8 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>35</v>
+      <c r="B28" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="1">
         <v>3829</v>
@@ -2687,8 +2688,8 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C29" s="1">
         <v>3859</v>
@@ -2710,8 +2711,8 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>37</v>
+      <c r="B30" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C30" s="1">
         <v>3863</v>
@@ -2733,8 +2734,8 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>38</v>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C31" s="1">
         <v>3868</v>
@@ -2756,8 +2757,8 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C32" s="1">
         <v>3872</v>
@@ -2779,8 +2780,8 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>40</v>
+      <c r="B33" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C33" s="1">
         <v>3873</v>
@@ -2802,8 +2803,8 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>41</v>
+      <c r="B34" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C34" s="1">
         <v>3877</v>
@@ -2825,8 +2826,8 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>42</v>
+      <c r="B35" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C35" s="1">
         <v>3878</v>
@@ -2848,8 +2849,8 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>43</v>
+      <c r="B36" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C36" s="1">
         <v>3887</v>
@@ -2871,8 +2872,8 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>44</v>
+      <c r="B37" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C37" s="1">
         <v>3882</v>
@@ -2894,8 +2895,8 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>45</v>
+      <c r="B38" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C38" s="1">
         <v>3901</v>
@@ -2917,8 +2918,8 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>46</v>
+      <c r="B39" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C39" s="1">
         <v>3909</v>
@@ -2940,7 +2941,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="1">
@@ -2963,8 +2964,8 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
+      <c r="B41" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C41" s="1">
         <v>3917</v>
@@ -2986,8 +2987,8 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
+      <c r="B42" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C42" s="1">
         <v>3921</v>
@@ -3009,8 +3010,8 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
+      <c r="B43" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C43" s="1">
         <v>3924</v>
@@ -3032,8 +3033,8 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
+      <c r="B44" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C44" s="1">
         <v>3929</v>
@@ -3055,8 +3056,8 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
+      <c r="B45" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C45" s="1">
         <v>3937</v>
@@ -3078,8 +3079,8 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>52</v>
+      <c r="B46" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C46" s="1">
         <v>3950</v>
@@ -3101,7 +3102,7 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="1">
@@ -3124,8 +3125,8 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>53</v>
+      <c r="B48" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C48" s="1">
         <v>3971</v>
@@ -3147,8 +3148,8 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>54</v>
+      <c r="B49" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C49" s="1">
         <v>3978</v>
@@ -3170,8 +3171,8 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>55</v>
+      <c r="B50" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C50" s="1">
         <v>3979</v>
@@ -3193,8 +3194,8 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>56</v>
+      <c r="B51" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C51" s="1">
         <v>3981</v>
@@ -3216,8 +3217,8 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>57</v>
+      <c r="B52" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C52" s="1">
         <v>3981</v>
@@ -3239,8 +3240,8 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>58</v>
+      <c r="B53" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C53" s="1">
         <v>4722</v>
@@ -3262,8 +3263,8 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>59</v>
+      <c r="B54" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C54" s="1">
         <v>4000</v>
@@ -3285,8 +3286,8 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>60</v>
+      <c r="B55" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C55" s="1">
         <v>4008</v>
@@ -3308,8 +3309,8 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>61</v>
+      <c r="B56" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C56" s="1">
         <v>4018</v>
@@ -3331,7 +3332,7 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="1">
@@ -3354,8 +3355,8 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>62</v>
+      <c r="B58" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C58" s="1">
         <v>4022</v>
@@ -3377,8 +3378,8 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>63</v>
+      <c r="B59" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C59" s="1">
         <v>4029</v>
@@ -3400,8 +3401,8 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>64</v>
+      <c r="B60" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C60" s="1">
         <v>4029</v>
@@ -3423,8 +3424,8 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>65</v>
+      <c r="B61" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C61" s="1">
         <v>4061</v>
@@ -3446,8 +3447,8 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>66</v>
+      <c r="B62" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C62" s="1">
         <v>4032</v>
@@ -3469,8 +3470,8 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>67</v>
+      <c r="B63" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C63" s="1">
         <v>4046</v>
@@ -3492,8 +3493,8 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>68</v>
+      <c r="B64" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C64" s="1">
         <v>4060</v>
@@ -3515,8 +3516,8 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>69</v>
+      <c r="B65" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C65" s="1">
         <v>4062</v>
@@ -3538,8 +3539,8 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>70</v>
+      <c r="B66" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C66" s="1">
         <v>4061</v>
@@ -3561,8 +3562,8 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>71</v>
+      <c r="B67" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C67" s="1">
         <v>4063</v>
@@ -3584,8 +3585,8 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>72</v>
+      <c r="B68" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C68" s="1">
         <v>4070</v>
@@ -3607,8 +3608,8 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>73</v>
+      <c r="B69" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C69" s="1">
         <v>4074</v>
@@ -3630,8 +3631,8 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>74</v>
+      <c r="B70" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C70" s="1">
         <v>4082</v>
@@ -3653,7 +3654,7 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="1">
@@ -3676,8 +3677,8 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>75</v>
+      <c r="B72" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C72" s="1">
         <v>4090</v>
@@ -3699,8 +3700,8 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>76</v>
+      <c r="B73" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C73" s="1">
         <v>4094</v>
@@ -3722,7 +3723,7 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="1">
@@ -3745,8 +3746,8 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>77</v>
+      <c r="B75" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C75" s="1">
         <v>4095</v>
@@ -3768,8 +3769,8 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>78</v>
+      <c r="B76" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C76" s="1">
         <v>4097</v>
@@ -3791,8 +3792,8 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>79</v>
+      <c r="B77" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C77" s="1">
         <v>4107</v>
@@ -3814,8 +3815,8 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>80</v>
+      <c r="B78" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C78" s="1">
         <v>4108</v>
@@ -3837,8 +3838,8 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>81</v>
+      <c r="B79" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C79" s="1">
         <v>4119</v>
@@ -3860,8 +3861,8 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>82</v>
+      <c r="B80" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C80" s="1">
         <v>4122</v>
@@ -3883,8 +3884,8 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>83</v>
+      <c r="B81" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C81" s="1">
         <v>4123</v>
@@ -3906,8 +3907,8 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>84</v>
+      <c r="B82" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C82" s="1">
         <v>4125</v>
@@ -3929,8 +3930,8 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>85</v>
+      <c r="B83" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C83" s="1">
         <v>4136</v>
@@ -3952,8 +3953,8 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>86</v>
+      <c r="B84" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C84" s="1">
         <v>4139</v>
@@ -3975,8 +3976,8 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>87</v>
+      <c r="B85" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C85" s="1">
         <v>4139</v>
@@ -3998,8 +3999,8 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>88</v>
+      <c r="B86" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C86" s="1">
         <v>4142</v>
@@ -4021,8 +4022,8 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>89</v>
+      <c r="B87" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C87" s="1">
         <v>4151</v>
@@ -4044,8 +4045,8 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>90</v>
+      <c r="B88" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C88" s="1">
         <v>4164</v>
@@ -4067,8 +4068,8 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>91</v>
+      <c r="B89" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C89" s="1">
         <v>4166</v>
@@ -4090,8 +4091,8 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>92</v>
+      <c r="B90" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C90" s="1">
         <v>4184</v>
@@ -4113,8 +4114,8 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>93</v>
+      <c r="B91" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C91" s="1">
         <v>4192</v>
@@ -4136,7 +4137,7 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="1">
@@ -4159,8 +4160,8 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>94</v>
+      <c r="B93" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C93" s="1">
         <v>4206</v>
@@ -4182,8 +4183,8 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>95</v>
+      <c r="B94" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C94" s="1">
         <v>4232</v>
@@ -4205,8 +4206,8 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>96</v>
+      <c r="B95" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C95" s="1">
         <v>4237</v>
@@ -4228,8 +4229,8 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>97</v>
+      <c r="B96" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C96" s="1">
         <v>4247</v>
@@ -4251,8 +4252,8 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>98</v>
+      <c r="B97" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C97" s="1">
         <v>4249</v>
@@ -4274,8 +4275,8 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>99</v>
+      <c r="B98" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="C98" s="1">
         <v>4248</v>
@@ -4297,8 +4298,8 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>100</v>
+      <c r="B99" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C99" s="1">
         <v>4255</v>
@@ -4320,8 +4321,8 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>101</v>
+      <c r="B100" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C100" s="1">
         <v>4264</v>
@@ -4343,8 +4344,8 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>102</v>
+      <c r="B101" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C101" s="1">
         <v>4267</v>
@@ -4366,8 +4367,8 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>103</v>
+      <c r="B102" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C102" s="1">
         <v>4282</v>
@@ -4389,8 +4390,8 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>104</v>
+      <c r="B103" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C103" s="1">
         <v>4288</v>
@@ -4412,8 +4413,8 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>105</v>
+      <c r="B104" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C104" s="1">
         <v>4293</v>
@@ -4435,8 +4436,8 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>106</v>
+      <c r="B105" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C105" s="1">
         <v>4300</v>
@@ -4458,8 +4459,8 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>107</v>
+      <c r="B106" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C106" s="1">
         <v>4301</v>
@@ -4481,8 +4482,8 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>108</v>
+      <c r="B107" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C107" s="1">
         <v>4314</v>
@@ -4504,8 +4505,8 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>109</v>
+      <c r="B108" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C108" s="1">
         <v>4313</v>
@@ -4527,8 +4528,8 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>110</v>
+      <c r="B109" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C109" s="1">
         <v>4333</v>
@@ -4550,8 +4551,8 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>111</v>
+      <c r="B110" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C110" s="1">
         <v>4341</v>
@@ -4573,8 +4574,8 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>28</v>
+      <c r="B111" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C111" s="1">
         <v>4345</v>
@@ -4596,8 +4597,8 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>112</v>
+      <c r="B112" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C112" s="1">
         <v>4351</v>
@@ -4619,8 +4620,8 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>113</v>
+      <c r="B113" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C113" s="1">
         <v>4354</v>
@@ -4642,8 +4643,8 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>114</v>
+      <c r="B114" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C114" s="1">
         <v>4357</v>
@@ -4665,8 +4666,8 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>115</v>
+      <c r="B115" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C115" s="1">
         <v>4365</v>
@@ -4688,8 +4689,8 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>116</v>
+      <c r="B116" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C116" s="1">
         <v>4369</v>
@@ -4711,8 +4712,8 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>117</v>
+      <c r="B117" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C117" s="1">
         <v>4373</v>
@@ -4734,8 +4735,8 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>118</v>
+      <c r="B118" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C118" s="1">
         <v>4377</v>
@@ -4757,8 +4758,8 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>119</v>
+      <c r="B119" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C119" s="1">
         <v>4393</v>
@@ -4780,8 +4781,8 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>120</v>
+      <c r="B120" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C120" s="1">
         <v>4397</v>
@@ -4803,8 +4804,8 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>121</v>
+      <c r="B121" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C121" s="1">
         <v>4397</v>
@@ -4826,8 +4827,8 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>122</v>
+      <c r="B122" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C122" s="1">
         <v>4704</v>
@@ -4849,8 +4850,8 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>123</v>
+      <c r="B123" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C123" s="1">
         <v>4400</v>
@@ -4872,8 +4873,8 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>124</v>
+      <c r="B124" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C124" s="1">
         <v>4401</v>
@@ -4895,8 +4896,8 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>125</v>
+      <c r="B125" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C125" s="1">
         <v>4403</v>
@@ -4918,8 +4919,8 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>126</v>
+      <c r="B126" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C126" s="1">
         <v>4411</v>
@@ -4941,8 +4942,8 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>127</v>
+      <c r="B127" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C127" s="1">
         <v>4414</v>
@@ -4964,8 +4965,8 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>128</v>
+      <c r="B128" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C128" s="1">
         <v>4416</v>
@@ -4987,8 +4988,8 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>129</v>
+      <c r="B129" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C129" s="1">
         <v>4664</v>
@@ -5010,8 +5011,8 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>130</v>
+      <c r="B130" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C130" s="1">
         <v>4420</v>
@@ -5033,8 +5034,8 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>131</v>
+      <c r="B131" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C131" s="1">
         <v>4430</v>
@@ -5056,8 +5057,8 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>132</v>
+      <c r="B132" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C132" s="1">
         <v>4432</v>
@@ -5079,7 +5080,7 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C133" s="1">
@@ -5102,8 +5103,8 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>133</v>
+      <c r="B134" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C134" s="1">
         <v>4431</v>
@@ -5125,8 +5126,8 @@
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>134</v>
+      <c r="B135" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C135" s="1">
         <v>4435</v>
@@ -5148,8 +5149,8 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>135</v>
+      <c r="B136" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C136" s="1">
         <v>4440</v>
@@ -5171,8 +5172,8 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>136</v>
+      <c r="B137" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C137" s="1">
         <v>4443</v>
@@ -5194,8 +5195,8 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>137</v>
+      <c r="B138" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C138" s="1">
         <v>4448</v>
@@ -5217,8 +5218,8 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>138</v>
+      <c r="B139" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C139" s="1">
         <v>4448</v>
@@ -5240,7 +5241,7 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C140" s="1">
@@ -5263,8 +5264,8 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>139</v>
+      <c r="B141" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C141" s="1">
         <v>4451</v>
@@ -5286,8 +5287,8 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>140</v>
+      <c r="B142" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="C142" s="1">
         <v>4457</v>
@@ -5309,8 +5310,8 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>141</v>
+      <c r="B143" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C143" s="1">
         <v>4464</v>
@@ -5332,8 +5333,8 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>142</v>
+      <c r="B144" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C144" s="1">
         <v>4474</v>
@@ -5355,8 +5356,8 @@
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>143</v>
+      <c r="B145" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C145" s="1">
         <v>4476</v>
@@ -5378,8 +5379,8 @@
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>144</v>
+      <c r="B146" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C146" s="1">
         <v>4479</v>
@@ -5401,8 +5402,8 @@
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>145</v>
+      <c r="B147" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C147" s="1">
         <v>4487</v>
@@ -5424,8 +5425,8 @@
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>146</v>
+      <c r="B148" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C148" s="1">
         <v>4490</v>
@@ -5447,8 +5448,8 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>147</v>
+      <c r="B149" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C149" s="1">
         <v>4494</v>
@@ -5470,8 +5471,8 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>148</v>
+      <c r="B150" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C150" s="1">
         <v>4476</v>
@@ -5493,8 +5494,8 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>149</v>
+      <c r="B151" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C151" s="1">
         <v>4495</v>
@@ -5516,8 +5517,8 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>150</v>
+      <c r="B152" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C152" s="1">
         <v>4495</v>
@@ -5539,8 +5540,8 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>151</v>
+      <c r="B153" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C153" s="1">
         <v>4499</v>
@@ -5562,8 +5563,8 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>152</v>
+      <c r="B154" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="C154" s="1">
         <v>4500</v>
@@ -5585,8 +5586,8 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>153</v>
+      <c r="B155" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="C155" s="1">
         <v>4501</v>
@@ -5608,8 +5609,8 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>154</v>
+      <c r="B156" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C156" s="1">
         <v>4503</v>
@@ -5631,8 +5632,8 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>155</v>
+      <c r="B157" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="C157" s="1">
         <v>4505</v>
@@ -5654,8 +5655,8 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>156</v>
+      <c r="B158" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C158" s="1">
         <v>4505</v>
@@ -5677,8 +5678,8 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>157</v>
+      <c r="B159" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C159" s="1">
         <v>4512</v>
@@ -5700,8 +5701,8 @@
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>158</v>
+      <c r="B160" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C160" s="1">
         <v>4513</v>
@@ -5723,8 +5724,8 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>159</v>
+      <c r="B161" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="C161" s="1">
         <v>4528</v>
@@ -5746,7 +5747,7 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C162" s="1">
@@ -5769,8 +5770,8 @@
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>160</v>
+      <c r="B163" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C163" s="1">
         <v>4533</v>
@@ -5792,8 +5793,8 @@
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>161</v>
+      <c r="B164" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C164" s="1">
         <v>4535</v>
@@ -5815,8 +5816,8 @@
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>162</v>
+      <c r="B165" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="C165" s="1">
         <v>4541</v>
@@ -5838,7 +5839,7 @@
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C166" s="1">
@@ -5861,7 +5862,7 @@
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C167" s="1">
@@ -5884,8 +5885,8 @@
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>163</v>
+      <c r="B168" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C168" s="1">
         <v>4549</v>
@@ -5907,8 +5908,8 @@
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>164</v>
+      <c r="B169" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="C169" s="1">
         <v>4561</v>
@@ -5930,8 +5931,8 @@
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>165</v>
+      <c r="B170" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C170" s="1">
         <v>4563</v>
@@ -5953,8 +5954,8 @@
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>166</v>
+      <c r="B171" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="C171" s="1">
         <v>4564</v>
@@ -5976,8 +5977,8 @@
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>167</v>
+      <c r="B172" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C172" s="1">
         <v>4582</v>
@@ -5999,8 +6000,8 @@
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>168</v>
+      <c r="B173" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C173" s="1">
         <v>4582</v>
@@ -6022,8 +6023,8 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>169</v>
+      <c r="B174" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C174" s="1">
         <v>4587</v>
@@ -6045,8 +6046,8 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>170</v>
+      <c r="B175" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C175" s="1">
         <v>4589</v>
@@ -6068,8 +6069,8 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>171</v>
+      <c r="B176" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C176" s="1">
         <v>4590</v>
@@ -6091,8 +6092,8 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>172</v>
+      <c r="B177" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="C177" s="1">
         <v>4595</v>
@@ -6114,8 +6115,8 @@
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>173</v>
+      <c r="B178" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="C178" s="1">
         <v>4595</v>
@@ -6137,8 +6138,8 @@
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>174</v>
+      <c r="B179" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C179" s="1">
         <v>4609</v>
@@ -6160,7 +6161,7 @@
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C180" s="1">
@@ -6183,7 +6184,7 @@
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C181" s="1">
@@ -6206,8 +6207,8 @@
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>175</v>
+      <c r="B182" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="C182" s="1">
         <v>4617</v>
@@ -6229,8 +6230,8 @@
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>176</v>
+      <c r="B183" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="C183" s="1">
         <v>4622</v>
@@ -6252,8 +6253,8 @@
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>177</v>
+      <c r="B184" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="C184" s="1">
         <v>4629</v>
@@ -6275,8 +6276,8 @@
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>178</v>
+      <c r="B185" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="C185" s="1">
         <v>4632</v>
@@ -6298,8 +6299,8 @@
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>179</v>
+      <c r="B186" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C186" s="1">
         <v>4635</v>
@@ -6321,8 +6322,8 @@
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>180</v>
+      <c r="B187" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="C187" s="1">
         <v>4646</v>
@@ -6344,8 +6345,8 @@
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>181</v>
+      <c r="B188" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C188" s="1">
         <v>4657</v>
@@ -6367,8 +6368,8 @@
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>182</v>
+      <c r="B189" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C189" s="1">
         <v>4658</v>
@@ -6390,8 +6391,8 @@
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>183</v>
+      <c r="B190" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="C190" s="1">
         <v>4674</v>
@@ -6413,8 +6414,8 @@
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>184</v>
+      <c r="B191" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C191" s="1">
         <v>4675</v>
@@ -6436,7 +6437,7 @@
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C192" s="1">
@@ -6459,8 +6460,8 @@
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>185</v>
+      <c r="B193" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="C193" s="1">
         <v>4678</v>
@@ -6482,8 +6483,8 @@
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>186</v>
+      <c r="B194" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C194" s="1">
         <v>4696</v>
@@ -6505,8 +6506,8 @@
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>187</v>
+      <c r="B195" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C195" s="1">
         <v>4700</v>
@@ -6528,8 +6529,8 @@
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>188</v>
+      <c r="B196" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="C196" s="1">
         <v>4702</v>
@@ -6551,8 +6552,8 @@
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>189</v>
+      <c r="B197" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="C197" s="1">
         <v>4707</v>
@@ -6574,8 +6575,8 @@
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>190</v>
+      <c r="B198" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="C198" s="1">
         <v>4708</v>
@@ -6597,8 +6598,8 @@
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>191</v>
+      <c r="B199" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C199" s="1">
         <v>825</v>
@@ -6620,8 +6621,8 @@
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>192</v>
+      <c r="B200" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="C200" s="1">
         <v>4728</v>
@@ -6643,8 +6644,8 @@
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>193</v>
+      <c r="B201" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="C201" s="1">
         <v>4740</v>
@@ -6666,8 +6667,8 @@
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>194</v>
+      <c r="B202" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="C202" s="1">
         <v>4740</v>
@@ -6689,8 +6690,8 @@
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>195</v>
+      <c r="B203" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C203" s="1">
         <v>4769</v>
@@ -6712,8 +6713,8 @@
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>196</v>
+      <c r="B204" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C204" s="1">
         <v>4771</v>
@@ -6735,8 +6736,8 @@
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>197</v>
+      <c r="B205" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="C205" s="1">
         <v>4783</v>
@@ -6758,8 +6759,8 @@
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>198</v>
+      <c r="B206" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="C206" s="1">
         <v>4788</v>
@@ -6781,8 +6782,8 @@
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>199</v>
+      <c r="B207" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C207" s="1">
         <v>4787</v>
@@ -6804,8 +6805,8 @@
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>200</v>
+      <c r="B208" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="C208" s="1">
         <v>4787</v>
@@ -6827,8 +6828,8 @@
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>201</v>
+      <c r="B209" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C209" s="1">
         <v>4792</v>
@@ -6850,8 +6851,8 @@
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>202</v>
+      <c r="B210" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="C210" s="1">
         <v>4794</v>
@@ -6873,8 +6874,8 @@
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>203</v>
+      <c r="B211" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="C211" s="1">
         <v>4808</v>
@@ -6896,8 +6897,8 @@
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>204</v>
+      <c r="B212" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="C212" s="1">
         <v>4808</v>
@@ -6919,8 +6920,8 @@
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>205</v>
+      <c r="B213" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="C213" s="1">
         <v>4814</v>
@@ -6942,8 +6943,8 @@
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>206</v>
+      <c r="B214" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="C214" s="1">
         <v>4818</v>
@@ -6965,8 +6966,8 @@
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>207</v>
+      <c r="B215" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="C215" s="1">
         <v>4820</v>
@@ -6988,8 +6989,8 @@
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>208</v>
+      <c r="B216" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C216" s="1">
         <v>4823</v>
@@ -7011,8 +7012,8 @@
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>209</v>
+      <c r="B217" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="C217" s="1">
         <v>4824</v>
@@ -7034,8 +7035,8 @@
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>210</v>
+      <c r="B218" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="C218" s="1">
         <v>4826</v>
@@ -7057,8 +7058,8 @@
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>211</v>
+      <c r="B219" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="C219" s="1">
         <v>4827</v>
@@ -7080,8 +7081,8 @@
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>212</v>
+      <c r="B220" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="C220" s="1">
         <v>4830</v>
@@ -7103,8 +7104,8 @@
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>213</v>
+      <c r="B221" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="C221" s="1">
         <v>4831</v>
@@ -7126,8 +7127,8 @@
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>214</v>
+      <c r="B222" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="C222" s="1">
         <v>4835</v>
@@ -7149,8 +7150,8 @@
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>215</v>
+      <c r="B223" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="C223" s="1">
         <v>4839</v>
@@ -7172,8 +7173,8 @@
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>216</v>
+      <c r="B224" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="C224" s="1">
         <v>4840</v>
@@ -7195,8 +7196,8 @@
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>217</v>
+      <c r="B225" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="C225" s="1">
         <v>4846</v>
@@ -7218,8 +7219,8 @@
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>218</v>
+      <c r="B226" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="C226" s="1">
         <v>4849</v>
@@ -7241,8 +7242,8 @@
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>219</v>
+      <c r="B227" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C227" s="1">
         <v>4853</v>
@@ -7264,8 +7265,8 @@
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>220</v>
+      <c r="B228" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="C228" s="1">
         <v>4876</v>
@@ -7287,8 +7288,8 @@
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>221</v>
+      <c r="B229" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="C229" s="1">
         <v>4877</v>
@@ -7310,8 +7311,8 @@
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>222</v>
+      <c r="B230" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="C230" s="1">
         <v>4884</v>
@@ -7333,8 +7334,8 @@
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>223</v>
+      <c r="B231" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="C231" s="1">
         <v>4892</v>
@@ -7356,8 +7357,8 @@
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>224</v>
+      <c r="B232" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="C232" s="1">
         <v>4900</v>
@@ -7379,8 +7380,8 @@
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>225</v>
+      <c r="B233" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C233" s="1">
         <v>4900</v>
@@ -7402,8 +7403,8 @@
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>226</v>
+      <c r="B234" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="C234" s="1">
         <v>4922</v>
@@ -7425,8 +7426,8 @@
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>227</v>
+      <c r="B235" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="C235" s="1">
         <v>4950</v>
@@ -7448,8 +7449,8 @@
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>228</v>
+      <c r="B236" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="C236" s="1">
         <v>4956</v>
@@ -7471,8 +7472,8 @@
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>229</v>
+      <c r="B237" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="C237" s="1">
         <v>4962</v>
@@ -7494,8 +7495,8 @@
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>230</v>
+      <c r="B238" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C238" s="1">
         <v>4994</v>
@@ -7517,8 +7518,8 @@
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>231</v>
+      <c r="B239" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="C239" s="1">
         <v>5014</v>
@@ -7540,8 +7541,8 @@
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>232</v>
+      <c r="B240" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="C240" s="1">
         <v>4991</v>
@@ -7563,8 +7564,8 @@
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>233</v>
+      <c r="B241" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C241" s="1">
         <v>4994</v>
@@ -7586,8 +7587,8 @@
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>234</v>
+      <c r="B242" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="C242" s="1">
         <v>4994</v>
@@ -7609,8 +7610,8 @@
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>235</v>
+      <c r="B243" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C243" s="1">
         <v>4994</v>
@@ -7632,8 +7633,8 @@
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>236</v>
+      <c r="B244" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C244" s="1">
         <v>5014</v>
@@ -7655,8 +7656,8 @@
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>237</v>
+      <c r="B245" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C245" s="1">
         <v>5018</v>
@@ -7678,8 +7679,8 @@
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>238</v>
+      <c r="B246" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="C246" s="1">
         <v>5020</v>
@@ -7701,8 +7702,8 @@
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>239</v>
+      <c r="B247" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C247" s="1">
         <v>5024</v>
@@ -7724,8 +7725,8 @@
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>240</v>
+      <c r="B248" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="C248" s="1">
         <v>5025</v>
@@ -7747,8 +7748,8 @@
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>241</v>
+      <c r="B249" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="C249" s="1">
         <v>5030</v>
@@ -7770,8 +7771,8 @@
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>242</v>
+      <c r="B250" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="C250" s="1">
         <v>5031</v>
@@ -7793,8 +7794,8 @@
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>243</v>
+      <c r="B251" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="C251" s="1">
         <v>5031</v>
@@ -7816,8 +7817,8 @@
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>244</v>
+      <c r="B252" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="C252" s="1">
         <v>5039</v>
@@ -7839,8 +7840,8 @@
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>245</v>
+      <c r="B253" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="C253" s="1">
         <v>5047</v>
@@ -7862,8 +7863,8 @@
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>246</v>
+      <c r="B254" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="C254" s="1">
         <v>5053</v>
@@ -7885,8 +7886,8 @@
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>247</v>
+      <c r="B255" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="C255" s="1">
         <v>5054</v>
@@ -7908,8 +7909,8 @@
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>248</v>
+      <c r="B256" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="C256" s="1">
         <v>5057</v>
@@ -7931,8 +7932,8 @@
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>249</v>
+      <c r="B257" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="C257" s="1">
         <v>5059</v>
@@ -7954,8 +7955,8 @@
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>250</v>
+      <c r="B258" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="C258" s="1">
         <v>5065</v>
@@ -7977,8 +7978,8 @@
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>251</v>
+      <c r="B259" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="C259" s="1">
         <v>5070</v>
@@ -8000,8 +8001,8 @@
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>252</v>
+      <c r="B260" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="C260" s="1">
         <v>5075</v>
@@ -8023,8 +8024,8 @@
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>253</v>
+      <c r="B261" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C261" s="1">
         <v>5081</v>
@@ -8046,8 +8047,8 @@
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>254</v>
+      <c r="B262" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="C262" s="1">
         <v>5093</v>
@@ -8069,8 +8070,8 @@
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>255</v>
+      <c r="B263" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="C263" s="1">
         <v>5093</v>
@@ -8092,8 +8093,8 @@
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>256</v>
+      <c r="B264" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="C264" s="1">
         <v>5099</v>
@@ -8115,8 +8116,8 @@
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>257</v>
+      <c r="B265" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="C265" s="1">
         <v>5102</v>
@@ -8138,8 +8139,8 @@
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>258</v>
+      <c r="B266" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="C266" s="1">
         <v>5103</v>
@@ -8161,8 +8162,8 @@
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>259</v>
+      <c r="B267" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="C267" s="1">
         <v>5117</v>
@@ -8184,8 +8185,8 @@
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>260</v>
+      <c r="B268" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="C268" s="1">
         <v>5117</v>
@@ -8207,8 +8208,8 @@
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>261</v>
+      <c r="B269" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="C269" s="1">
         <v>5119</v>
@@ -8230,7 +8231,7 @@
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="B270" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C270" s="1">
@@ -8253,8 +8254,8 @@
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>262</v>
+      <c r="B271" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="C271" s="1">
         <v>5124</v>
@@ -8276,8 +8277,8 @@
       <c r="A272">
         <v>271</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>263</v>
+      <c r="B272" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="C272" s="1">
         <v>5139</v>
@@ -8299,8 +8300,8 @@
       <c r="A273">
         <v>272</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>264</v>
+      <c r="B273" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="C273" s="1">
         <v>5139</v>
@@ -8322,8 +8323,8 @@
       <c r="A274">
         <v>273</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>265</v>
+      <c r="B274" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="C274" s="1">
         <v>5146</v>
@@ -8345,8 +8346,8 @@
       <c r="A275">
         <v>274</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>266</v>
+      <c r="B275" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="C275" s="1">
         <v>5167</v>
@@ -8368,8 +8369,8 @@
       <c r="A276">
         <v>275</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>267</v>
+      <c r="B276" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="C276" s="1">
         <v>5167</v>
@@ -8391,8 +8392,8 @@
       <c r="A277">
         <v>276</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>268</v>
+      <c r="B277" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="C277" s="1">
         <v>5170</v>
@@ -8414,8 +8415,8 @@
       <c r="A278">
         <v>277</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>269</v>
+      <c r="B278" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C278" s="1">
         <v>5173</v>
@@ -8437,8 +8438,8 @@
       <c r="A279">
         <v>278</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>270</v>
+      <c r="B279" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="C279" s="1">
         <v>5175</v>
@@ -8460,8 +8461,8 @@
       <c r="A280">
         <v>279</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>271</v>
+      <c r="B280" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="C280" s="1">
         <v>5188</v>
@@ -8483,8 +8484,8 @@
       <c r="A281">
         <v>280</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>272</v>
+      <c r="B281" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="C281" s="1">
         <v>5188</v>
@@ -8506,8 +8507,8 @@
       <c r="A282">
         <v>281</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>273</v>
+      <c r="B282" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="C282" s="1">
         <v>5188</v>
@@ -8529,8 +8530,8 @@
       <c r="A283">
         <v>282</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>274</v>
+      <c r="B283" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="C283" s="1">
         <v>5191</v>
@@ -8552,8 +8553,8 @@
       <c r="A284">
         <v>283</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>275</v>
+      <c r="B284" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="C284" s="1">
         <v>5210</v>
@@ -8575,8 +8576,8 @@
       <c r="A285">
         <v>284</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>276</v>
+      <c r="B285" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="C285" s="1">
         <v>5212</v>
@@ -8598,8 +8599,8 @@
       <c r="A286">
         <v>285</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>277</v>
+      <c r="B286" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="C286" s="1">
         <v>5212</v>
@@ -8621,8 +8622,8 @@
       <c r="A287">
         <v>286</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>278</v>
+      <c r="B287" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="C287" s="1">
         <v>5221</v>
@@ -8644,8 +8645,8 @@
       <c r="A288">
         <v>287</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>279</v>
+      <c r="B288" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="C288" s="1">
         <v>5221</v>
@@ -8667,8 +8668,8 @@
       <c r="A289">
         <v>288</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>280</v>
+      <c r="B289" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="C289" s="1">
         <v>5232</v>
@@ -8690,8 +8691,8 @@
       <c r="A290">
         <v>289</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>281</v>
+      <c r="B290" s="4" t="s">
+        <v>279</v>
       </c>
       <c r="C290" s="1">
         <v>5238</v>
@@ -8713,8 +8714,8 @@
       <c r="A291">
         <v>290</v>
       </c>
-      <c r="B291" s="1" t="s">
-        <v>282</v>
+      <c r="B291" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="C291" s="1">
         <v>5239</v>
@@ -8736,8 +8737,8 @@
       <c r="A292">
         <v>291</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>283</v>
+      <c r="B292" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="C292" s="1">
         <v>5242</v>
@@ -8759,8 +8760,8 @@
       <c r="A293">
         <v>292</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>284</v>
+      <c r="B293" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="C293" s="1">
         <v>5246</v>
@@ -8782,8 +8783,8 @@
       <c r="A294">
         <v>293</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>285</v>
+      <c r="B294" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="C294" s="1">
         <v>5247</v>
@@ -8805,8 +8806,8 @@
       <c r="A295">
         <v>294</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>286</v>
+      <c r="B295" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="C295" s="1">
         <v>5250</v>
@@ -8828,8 +8829,8 @@
       <c r="A296">
         <v>295</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>287</v>
+      <c r="B296" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="C296" s="1">
         <v>5252</v>
@@ -8851,7 +8852,7 @@
       <c r="A297">
         <v>296</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="B297" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C297" s="1">
@@ -8874,8 +8875,8 @@
       <c r="A298">
         <v>297</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>288</v>
+      <c r="B298" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="C298" s="1">
         <v>5253</v>
@@ -8897,8 +8898,8 @@
       <c r="A299">
         <v>298</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>289</v>
+      <c r="B299" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="C299" s="1">
         <v>5254</v>
@@ -8920,7 +8921,7 @@
       <c r="A300">
         <v>299</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="B300" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C300" s="1">
@@ -8943,8 +8944,8 @@
       <c r="A301">
         <v>300</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>290</v>
+      <c r="B301" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="C301" s="1">
         <v>5257</v>
@@ -8966,8 +8967,8 @@
       <c r="A302">
         <v>301</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>291</v>
+      <c r="B302" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="C302" s="1">
         <v>5258</v>
@@ -8989,8 +8990,8 @@
       <c r="A303">
         <v>302</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>292</v>
+      <c r="B303" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="C303" s="1">
         <v>5269</v>
@@ -9012,8 +9013,8 @@
       <c r="A304">
         <v>303</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>293</v>
+      <c r="B304" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="C304" s="1">
         <v>5269</v>
@@ -9035,8 +9036,8 @@
       <c r="A305">
         <v>304</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>294</v>
+      <c r="B305" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="C305" s="1">
         <v>5280</v>
@@ -9058,8 +9059,8 @@
       <c r="A306">
         <v>305</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>295</v>
+      <c r="B306" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="C306" s="1">
         <v>5284</v>
@@ -9081,8 +9082,8 @@
       <c r="A307">
         <v>306</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>296</v>
+      <c r="B307" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="C307" s="1">
         <v>5301</v>
@@ -9104,8 +9105,8 @@
       <c r="A308">
         <v>307</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>297</v>
+      <c r="B308" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="C308" s="1">
         <v>5305</v>
@@ -9127,8 +9128,8 @@
       <c r="A309">
         <v>308</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>298</v>
+      <c r="B309" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="C309" s="1">
         <v>5307</v>
@@ -9150,8 +9151,8 @@
       <c r="A310">
         <v>309</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>299</v>
+      <c r="B310" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="C310" s="1">
         <v>5309</v>
@@ -9173,8 +9174,8 @@
       <c r="A311">
         <v>310</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>300</v>
+      <c r="B311" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="C311" s="1">
         <v>5331</v>
@@ -9196,8 +9197,8 @@
       <c r="A312">
         <v>311</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>301</v>
+      <c r="B312" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="C312" s="1">
         <v>5342</v>
@@ -9219,8 +9220,8 @@
       <c r="A313" s="2">
         <v>312</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>302</v>
+      <c r="B313" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="C313" s="1">
         <v>5355</v>
@@ -9242,8 +9243,8 @@
       <c r="A314">
         <v>313</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>303</v>
+      <c r="B314" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="C314" s="1">
         <v>5355</v>
@@ -9265,8 +9266,8 @@
       <c r="A315">
         <v>314</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>304</v>
+      <c r="B315" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="C315" s="1">
         <v>5357</v>
@@ -9288,8 +9289,8 @@
       <c r="A316">
         <v>315</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>305</v>
+      <c r="B316" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="C316" s="1">
         <v>5366</v>
@@ -9311,8 +9312,8 @@
       <c r="A317">
         <v>316</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>306</v>
+      <c r="B317" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="C317" s="1">
         <v>5369</v>
@@ -9334,8 +9335,8 @@
       <c r="A318">
         <v>317</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>307</v>
+      <c r="B318" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="C318" s="1">
         <v>5371</v>
@@ -9357,7 +9358,7 @@
       <c r="A319">
         <v>318</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B319" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C319" s="1">
@@ -9380,8 +9381,8 @@
       <c r="A320">
         <v>319</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>308</v>
+      <c r="B320" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="C320" s="1">
         <v>5388</v>
@@ -9403,8 +9404,8 @@
       <c r="A321">
         <v>320</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>309</v>
+      <c r="B321" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="C321" s="1">
         <v>5396</v>
@@ -9426,8 +9427,8 @@
       <c r="A322">
         <v>321</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>310</v>
+      <c r="B322" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="C322" s="1">
         <v>5402</v>
@@ -9449,8 +9450,8 @@
       <c r="A323">
         <v>322</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>311</v>
+      <c r="B323" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="C323" s="1">
         <v>5404</v>
@@ -9472,8 +9473,8 @@
       <c r="A324">
         <v>323</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>312</v>
+      <c r="B324" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="C324" s="1">
         <v>5404</v>
@@ -9495,8 +9496,8 @@
       <c r="A325">
         <v>324</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>313</v>
+      <c r="B325" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="C325" s="1">
         <v>5422</v>
@@ -9518,8 +9519,8 @@
       <c r="A326">
         <v>325</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>314</v>
+      <c r="B326" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="C326" s="1">
         <v>5426</v>
@@ -9541,8 +9542,8 @@
       <c r="A327">
         <v>326</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>315</v>
+      <c r="B327" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="C327" s="1">
         <v>5428</v>
@@ -9564,8 +9565,8 @@
       <c r="A328">
         <v>327</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>316</v>
+      <c r="B328" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="C328" s="1">
         <v>5431</v>
@@ -9587,8 +9588,8 @@
       <c r="A329">
         <v>328</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>317</v>
+      <c r="B329" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="C329" s="1">
         <v>5455</v>
@@ -9610,8 +9611,8 @@
       <c r="A330">
         <v>329</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>318</v>
+      <c r="B330" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="C330" s="1">
         <v>5458</v>
@@ -9633,8 +9634,8 @@
       <c r="A331">
         <v>330</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>319</v>
+      <c r="B331" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="C331" s="1">
         <v>5471</v>
@@ -9656,8 +9657,8 @@
       <c r="A332">
         <v>331</v>
       </c>
-      <c r="B332" s="1" t="s">
-        <v>319</v>
+      <c r="B332" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="C332" s="1">
         <v>5471</v>
@@ -9679,8 +9680,8 @@
       <c r="A333">
         <v>332</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>320</v>
+      <c r="B333" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="C333" s="1">
         <v>5474</v>
@@ -9702,8 +9703,8 @@
       <c r="A334">
         <v>333</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>321</v>
+      <c r="B334" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="C334" s="1">
         <v>5477</v>
@@ -9725,8 +9726,8 @@
       <c r="A335">
         <v>334</v>
       </c>
-      <c r="B335" s="1" t="s">
-        <v>306</v>
+      <c r="B335" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="C335" s="1">
         <v>5478</v>
@@ -9748,8 +9749,8 @@
       <c r="A336">
         <v>335</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>322</v>
+      <c r="B336" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="C336" s="1">
         <v>5482</v>
@@ -9771,8 +9772,8 @@
       <c r="A337">
         <v>336</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>323</v>
+      <c r="B337" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="C337" s="1">
         <v>5483</v>
@@ -9794,8 +9795,8 @@
       <c r="A338">
         <v>337</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>324</v>
+      <c r="B338" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="C338" s="1">
         <v>5496</v>
@@ -9817,8 +9818,8 @@
       <c r="A339">
         <v>338</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>325</v>
+      <c r="B339" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="C339" s="1">
         <v>5499</v>
@@ -9840,8 +9841,8 @@
       <c r="A340">
         <v>339</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>326</v>
+      <c r="B340" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="C340" s="1">
         <v>5501</v>
@@ -9863,8 +9864,8 @@
       <c r="A341">
         <v>340</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>327</v>
+      <c r="B341" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="C341" s="1">
         <v>5506</v>
@@ -9886,8 +9887,8 @@
       <c r="A342">
         <v>341</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>328</v>
+      <c r="B342" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="C342" s="1">
         <v>5509</v>
@@ -9909,8 +9910,8 @@
       <c r="A343">
         <v>342</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>329</v>
+      <c r="B343" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="C343" s="1">
         <v>5512</v>
@@ -9932,8 +9933,8 @@
       <c r="A344">
         <v>343</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>330</v>
+      <c r="B344" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="C344" s="1">
         <v>5515</v>
@@ -9955,8 +9956,8 @@
       <c r="A345">
         <v>344</v>
       </c>
-      <c r="B345" s="1" t="s">
-        <v>331</v>
+      <c r="B345" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="C345" s="1">
         <v>5516</v>
@@ -9978,8 +9979,8 @@
       <c r="A346">
         <v>345</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>332</v>
+      <c r="B346" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="C346" s="1">
         <v>5518</v>
@@ -10001,8 +10002,8 @@
       <c r="A347">
         <v>346</v>
       </c>
-      <c r="B347" s="1" t="s">
-        <v>333</v>
+      <c r="B347" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="C347" s="1">
         <v>5525</v>
@@ -10024,8 +10025,8 @@
       <c r="A348">
         <v>347</v>
       </c>
-      <c r="B348" s="1" t="s">
-        <v>334</v>
+      <c r="B348" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="C348" s="1">
         <v>5542</v>
@@ -10047,8 +10048,8 @@
       <c r="A349">
         <v>348</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>335</v>
+      <c r="B349" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="C349" s="1">
         <v>5541</v>
@@ -10070,8 +10071,8 @@
       <c r="A350">
         <v>349</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>336</v>
+      <c r="B350" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="C350" s="1">
         <v>5542</v>
@@ -10093,8 +10094,8 @@
       <c r="A351">
         <v>350</v>
       </c>
-      <c r="B351" s="1" t="s">
-        <v>337</v>
+      <c r="B351" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="C351" s="1">
         <v>5544</v>
@@ -10116,8 +10117,8 @@
       <c r="A352">
         <v>351</v>
       </c>
-      <c r="B352" s="1" t="s">
-        <v>338</v>
+      <c r="B352" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="C352" s="1">
         <v>5543</v>
@@ -10139,8 +10140,8 @@
       <c r="A353">
         <v>352</v>
       </c>
-      <c r="B353" s="1" t="s">
-        <v>339</v>
+      <c r="B353" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="C353" s="1">
         <v>5544</v>
@@ -10162,8 +10163,8 @@
       <c r="A354">
         <v>353</v>
       </c>
-      <c r="B354" s="1" t="s">
-        <v>340</v>
+      <c r="B354" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="C354" s="1">
         <v>5547</v>
@@ -10185,8 +10186,8 @@
       <c r="A355">
         <v>354</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>334</v>
+      <c r="B355" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="C355" s="1">
         <v>5552</v>
@@ -10208,7 +10209,7 @@
       <c r="A356">
         <v>355</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B356" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C356" s="1">
@@ -10231,8 +10232,8 @@
       <c r="A357">
         <v>356</v>
       </c>
-      <c r="B357" s="1" t="s">
-        <v>341</v>
+      <c r="B357" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="C357" s="1">
         <v>5566</v>
@@ -10254,8 +10255,8 @@
       <c r="A358">
         <v>357</v>
       </c>
-      <c r="B358" s="1" t="s">
-        <v>342</v>
+      <c r="B358" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="C358" s="1">
         <v>5589</v>
@@ -10277,8 +10278,8 @@
       <c r="A359">
         <v>358</v>
       </c>
-      <c r="B359" s="1" t="s">
-        <v>343</v>
+      <c r="B359" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="C359" s="1">
         <v>5572</v>
@@ -10300,8 +10301,8 @@
       <c r="A360">
         <v>359</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>344</v>
+      <c r="B360" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="C360" s="1">
         <v>5580</v>
@@ -10323,8 +10324,8 @@
       <c r="A361">
         <v>360</v>
       </c>
-      <c r="B361" s="1" t="s">
-        <v>345</v>
+      <c r="B361" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="C361" s="1">
         <v>5584</v>
@@ -10346,8 +10347,8 @@
       <c r="A362">
         <v>361</v>
       </c>
-      <c r="B362" s="1" t="s">
-        <v>346</v>
+      <c r="B362" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="C362" s="1">
         <v>5590</v>
@@ -10369,8 +10370,8 @@
       <c r="A363">
         <v>362</v>
       </c>
-      <c r="B363" s="1" t="s">
-        <v>347</v>
+      <c r="B363" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="C363" s="1">
         <v>5601</v>
@@ -10392,8 +10393,8 @@
       <c r="A364">
         <v>363</v>
       </c>
-      <c r="B364" s="1" t="s">
-        <v>348</v>
+      <c r="B364" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C364" s="1">
         <v>5601</v>
@@ -10415,8 +10416,8 @@
       <c r="A365">
         <v>364</v>
       </c>
-      <c r="B365" s="1" t="s">
-        <v>349</v>
+      <c r="B365" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="C365" s="1">
         <v>5602</v>
@@ -10438,8 +10439,8 @@
       <c r="A366">
         <v>365</v>
       </c>
-      <c r="B366" s="1" t="s">
-        <v>350</v>
+      <c r="B366" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="C366" s="1">
         <v>5612</v>
@@ -10461,8 +10462,8 @@
       <c r="A367">
         <v>366</v>
       </c>
-      <c r="B367" s="1" t="s">
-        <v>350</v>
+      <c r="B367" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="C367" s="1">
         <v>5612</v>
@@ -10484,8 +10485,8 @@
       <c r="A368">
         <v>367</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>351</v>
+      <c r="B368" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="C368" s="1">
         <v>5619</v>
@@ -10507,8 +10508,8 @@
       <c r="A369">
         <v>368</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>71</v>
+      <c r="B369" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C369" s="1">
         <v>5628</v>
@@ -10530,8 +10531,8 @@
       <c r="A370">
         <v>369</v>
       </c>
-      <c r="B370" s="1" t="s">
-        <v>352</v>
+      <c r="B370" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="C370" s="1">
         <v>5622</v>
@@ -10553,7 +10554,7 @@
       <c r="A371">
         <v>370</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="B371" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C371" s="1">
@@ -10576,8 +10577,8 @@
       <c r="A372">
         <v>371</v>
       </c>
-      <c r="B372" s="1" t="s">
-        <v>353</v>
+      <c r="B372" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="C372" s="1">
         <v>5648</v>
@@ -10599,8 +10600,8 @@
       <c r="A373">
         <v>372</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>354</v>
+      <c r="B373" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="C373" s="1">
         <v>5653</v>
@@ -10622,8 +10623,8 @@
       <c r="A374">
         <v>373</v>
       </c>
-      <c r="B374" s="1" t="s">
-        <v>355</v>
+      <c r="B374" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="C374" s="1">
         <v>5668</v>
@@ -10645,8 +10646,8 @@
       <c r="A375">
         <v>374</v>
       </c>
-      <c r="B375" s="1" t="s">
-        <v>356</v>
+      <c r="B375" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="C375" s="1">
         <v>5694</v>
@@ -10668,8 +10669,8 @@
       <c r="A376">
         <v>375</v>
       </c>
-      <c r="B376" s="1" t="s">
-        <v>357</v>
+      <c r="B376" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C376" s="1">
         <v>5701</v>
@@ -10691,8 +10692,8 @@
       <c r="A377">
         <v>376</v>
       </c>
-      <c r="B377" s="1" t="s">
-        <v>358</v>
+      <c r="B377" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="C377" s="1">
         <v>5714</v>
@@ -10714,8 +10715,8 @@
       <c r="A378">
         <v>377</v>
       </c>
-      <c r="B378" s="1" t="s">
-        <v>359</v>
+      <c r="B378" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C378" s="1">
         <v>5627</v>
@@ -10737,8 +10738,8 @@
       <c r="A379">
         <v>378</v>
       </c>
-      <c r="B379" s="1" t="s">
-        <v>360</v>
+      <c r="B379" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C379" s="1">
         <v>5721</v>
@@ -10760,8 +10761,8 @@
       <c r="A380">
         <v>379</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>361</v>
+      <c r="B380" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="C380" s="1">
         <v>5730</v>
@@ -10783,8 +10784,8 @@
       <c r="A381">
         <v>380</v>
       </c>
-      <c r="B381" s="1" t="s">
-        <v>362</v>
+      <c r="B381" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="C381" s="1">
         <v>5763</v>
@@ -10806,8 +10807,8 @@
       <c r="A382">
         <v>381</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>363</v>
+      <c r="B382" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="C382" s="1">
         <v>5763</v>
@@ -10829,8 +10830,8 @@
       <c r="A383">
         <v>382</v>
       </c>
-      <c r="B383" s="1" t="s">
-        <v>364</v>
+      <c r="B383" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="C383" s="1">
         <v>5780</v>
@@ -10852,8 +10853,8 @@
       <c r="A384">
         <v>383</v>
       </c>
-      <c r="B384" s="1" t="s">
-        <v>365</v>
+      <c r="B384" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="C384" s="1">
         <v>5792</v>
@@ -10875,8 +10876,8 @@
       <c r="A385">
         <v>384</v>
       </c>
-      <c r="B385" s="1" t="s">
-        <v>366</v>
+      <c r="B385" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="C385" s="1">
         <v>5811</v>
@@ -10898,8 +10899,8 @@
       <c r="A386">
         <v>385</v>
       </c>
-      <c r="B386" s="1" t="s">
-        <v>367</v>
+      <c r="B386" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C386" s="1">
         <v>5819</v>
@@ -10921,8 +10922,8 @@
       <c r="A387">
         <v>386</v>
       </c>
-      <c r="B387" s="1" t="s">
-        <v>368</v>
+      <c r="B387" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="C387" s="1">
         <v>5822</v>
@@ -10944,8 +10945,8 @@
       <c r="A388">
         <v>387</v>
       </c>
-      <c r="B388" s="1" t="s">
-        <v>369</v>
+      <c r="B388" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C388" s="1">
         <v>5823</v>
@@ -10967,8 +10968,8 @@
       <c r="A389">
         <v>388</v>
       </c>
-      <c r="B389" s="1" t="s">
-        <v>370</v>
+      <c r="B389" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="C389" s="1">
         <v>5824</v>
@@ -10990,8 +10991,8 @@
       <c r="A390">
         <v>389</v>
       </c>
-      <c r="B390" s="1" t="s">
-        <v>371</v>
+      <c r="B390" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="C390" s="1">
         <v>5779</v>
@@ -11013,8 +11014,8 @@
       <c r="A391">
         <v>390</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>372</v>
+      <c r="B391" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="C391" s="1">
         <v>5847</v>
@@ -11036,8 +11037,8 @@
       <c r="A392">
         <v>391</v>
       </c>
-      <c r="B392" s="1" t="s">
-        <v>373</v>
+      <c r="B392" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="C392" s="1">
         <v>5849</v>
@@ -11059,8 +11060,8 @@
       <c r="A393">
         <v>392</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>374</v>
+      <c r="B393" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="C393" s="1">
         <v>5850</v>
@@ -11082,8 +11083,8 @@
       <c r="A394">
         <v>393</v>
       </c>
-      <c r="B394" s="1" t="s">
-        <v>375</v>
+      <c r="B394" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="C394" s="1">
         <v>5851</v>
@@ -11105,8 +11106,8 @@
       <c r="A395">
         <v>394</v>
       </c>
-      <c r="B395" s="1" t="s">
-        <v>376</v>
+      <c r="B395" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="C395" s="1">
         <v>5851</v>
@@ -11128,8 +11129,8 @@
       <c r="A396">
         <v>395</v>
       </c>
-      <c r="B396" s="1" t="s">
-        <v>377</v>
+      <c r="B396" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="C396" s="1">
         <v>5855</v>
@@ -11151,8 +11152,8 @@
       <c r="A397">
         <v>396</v>
       </c>
-      <c r="B397" s="1" t="s">
-        <v>378</v>
+      <c r="B397" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="C397" s="1">
         <v>5853</v>
@@ -11174,8 +11175,8 @@
       <c r="A398">
         <v>397</v>
       </c>
-      <c r="B398" s="1" t="s">
-        <v>379</v>
+      <c r="B398" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="C398" s="1">
         <v>5859</v>
@@ -11197,8 +11198,8 @@
       <c r="A399">
         <v>398</v>
       </c>
-      <c r="B399" s="1" t="s">
-        <v>380</v>
+      <c r="B399" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C399" s="1">
         <v>5862</v>
@@ -11220,8 +11221,8 @@
       <c r="A400">
         <v>399</v>
       </c>
-      <c r="B400" s="1" t="s">
-        <v>381</v>
+      <c r="B400" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="C400" s="1">
         <v>5875</v>
@@ -11243,8 +11244,8 @@
       <c r="A401">
         <v>400</v>
       </c>
-      <c r="B401" s="1" t="s">
-        <v>382</v>
+      <c r="B401" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="C401" s="1">
         <v>5875</v>
@@ -11266,8 +11267,8 @@
       <c r="A402">
         <v>401</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>383</v>
+      <c r="B402" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="C402" s="1">
         <v>5881</v>
@@ -11289,8 +11290,8 @@
       <c r="A403">
         <v>402</v>
       </c>
-      <c r="B403" s="1" t="s">
-        <v>384</v>
+      <c r="B403" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="C403" s="1">
         <v>5883</v>
@@ -11312,8 +11313,8 @@
       <c r="A404">
         <v>403</v>
       </c>
-      <c r="B404" s="1" t="s">
-        <v>385</v>
+      <c r="B404" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="C404" s="1">
         <v>5883</v>
@@ -11335,8 +11336,8 @@
       <c r="A405">
         <v>404</v>
       </c>
-      <c r="B405" s="1" t="s">
-        <v>386</v>
+      <c r="B405" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="C405" s="1">
         <v>5886</v>
@@ -11358,8 +11359,8 @@
       <c r="A406">
         <v>405</v>
       </c>
-      <c r="B406" s="1" t="s">
-        <v>387</v>
+      <c r="B406" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="C406" s="1">
         <v>5888</v>
@@ -11381,8 +11382,8 @@
       <c r="A407">
         <v>406</v>
       </c>
-      <c r="B407" s="1" t="s">
-        <v>388</v>
+      <c r="B407" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="C407" s="1">
         <v>5890</v>
@@ -11404,8 +11405,8 @@
       <c r="A408">
         <v>407</v>
       </c>
-      <c r="B408" s="1" t="s">
-        <v>389</v>
+      <c r="B408" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="C408" s="1">
         <v>5890</v>
@@ -11427,8 +11428,8 @@
       <c r="A409">
         <v>408</v>
       </c>
-      <c r="B409" s="1" t="s">
-        <v>390</v>
+      <c r="B409" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="C409" s="1">
         <v>5896</v>
@@ -11450,8 +11451,8 @@
       <c r="A410">
         <v>409</v>
       </c>
-      <c r="B410" s="1" t="s">
-        <v>391</v>
+      <c r="B410" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="C410" s="1">
         <v>5901</v>
@@ -11473,8 +11474,8 @@
       <c r="A411">
         <v>410</v>
       </c>
-      <c r="B411" s="1" t="s">
-        <v>392</v>
+      <c r="B411" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="C411" s="1">
         <v>5903</v>
@@ -11496,8 +11497,8 @@
       <c r="A412">
         <v>411</v>
       </c>
-      <c r="B412" s="1" t="s">
-        <v>393</v>
+      <c r="B412" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="C412" s="1">
         <v>5904</v>
@@ -11519,8 +11520,8 @@
       <c r="A413">
         <v>412</v>
       </c>
-      <c r="B413" s="1" t="s">
-        <v>394</v>
+      <c r="B413" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="C413" s="1">
         <v>5910</v>
@@ -11542,8 +11543,8 @@
       <c r="A414">
         <v>413</v>
       </c>
-      <c r="B414" s="1" t="s">
-        <v>359</v>
+      <c r="B414" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C414" s="1">
         <v>5912</v>
@@ -11565,8 +11566,8 @@
       <c r="A415">
         <v>414</v>
       </c>
-      <c r="B415" s="1" t="s">
-        <v>395</v>
+      <c r="B415" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="C415" s="1">
         <v>5910</v>
@@ -11588,8 +11589,8 @@
       <c r="A416">
         <v>415</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>396</v>
+      <c r="B416" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="C416" s="1">
         <v>5921</v>
@@ -11611,8 +11612,8 @@
       <c r="A417">
         <v>416</v>
       </c>
-      <c r="B417" s="1" t="s">
-        <v>397</v>
+      <c r="B417" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="C417" s="1">
         <v>5926</v>
@@ -11634,8 +11635,8 @@
       <c r="A418">
         <v>417</v>
       </c>
-      <c r="B418" s="1" t="s">
-        <v>398</v>
+      <c r="B418" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="C418" s="1">
         <v>5931</v>
@@ -11657,8 +11658,8 @@
       <c r="A419">
         <v>418</v>
       </c>
-      <c r="B419" s="1" t="s">
-        <v>399</v>
+      <c r="B419" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="C419" s="1">
         <v>5929</v>
@@ -11680,8 +11681,8 @@
       <c r="A420">
         <v>419</v>
       </c>
-      <c r="B420" s="1" t="s">
-        <v>400</v>
+      <c r="B420" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="C420" s="1">
         <v>5939</v>
@@ -11703,8 +11704,8 @@
       <c r="A421">
         <v>420</v>
       </c>
-      <c r="B421" s="1" t="s">
-        <v>401</v>
+      <c r="B421" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="C421" s="1">
         <v>5938</v>
@@ -11726,8 +11727,8 @@
       <c r="A422">
         <v>421</v>
       </c>
-      <c r="B422" s="1" t="s">
-        <v>402</v>
+      <c r="B422" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="C422" s="1">
         <v>5939</v>
@@ -11749,8 +11750,8 @@
       <c r="A423">
         <v>422</v>
       </c>
-      <c r="B423" s="1" t="s">
-        <v>403</v>
+      <c r="B423" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="C423" s="1">
         <v>5951</v>
@@ -11772,8 +11773,8 @@
       <c r="A424">
         <v>423</v>
       </c>
-      <c r="B424" s="1" t="s">
-        <v>404</v>
+      <c r="B424" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="C424" s="1">
         <v>5951</v>
@@ -11795,8 +11796,8 @@
       <c r="A425">
         <v>424</v>
       </c>
-      <c r="B425" s="1" t="s">
-        <v>405</v>
+      <c r="B425" s="4" t="s">
+        <v>403</v>
       </c>
       <c r="C425" s="1">
         <v>5962</v>
@@ -11818,8 +11819,8 @@
       <c r="A426">
         <v>425</v>
       </c>
-      <c r="B426" s="1" t="s">
-        <v>406</v>
+      <c r="B426" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="C426" s="1">
         <v>5970</v>
@@ -11841,8 +11842,8 @@
       <c r="A427">
         <v>426</v>
       </c>
-      <c r="B427" s="1" t="s">
-        <v>407</v>
+      <c r="B427" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="C427" s="1">
         <v>5991</v>
@@ -11864,8 +11865,8 @@
       <c r="A428">
         <v>427</v>
       </c>
-      <c r="B428" s="1" t="s">
-        <v>408</v>
+      <c r="B428" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="C428" s="1">
         <v>5990</v>
@@ -11887,8 +11888,8 @@
       <c r="A429">
         <v>428</v>
       </c>
-      <c r="B429" s="1" t="s">
-        <v>409</v>
+      <c r="B429" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="C429" s="1">
         <v>6018</v>
@@ -11910,8 +11911,8 @@
       <c r="A430">
         <v>429</v>
       </c>
-      <c r="B430" s="1" t="s">
-        <v>410</v>
+      <c r="B430" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="C430" s="1">
         <v>6018</v>
@@ -11933,8 +11934,8 @@
       <c r="A431">
         <v>430</v>
       </c>
-      <c r="B431" s="1" t="s">
-        <v>411</v>
+      <c r="B431" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="C431" s="1">
         <v>6025</v>
@@ -11956,7 +11957,7 @@
       <c r="A432">
         <v>431</v>
       </c>
-      <c r="B432" s="1" t="s">
+      <c r="B432" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C432" s="1">
@@ -11979,8 +11980,8 @@
       <c r="A433">
         <v>432</v>
       </c>
-      <c r="B433" s="1" t="s">
-        <v>412</v>
+      <c r="B433" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="C433" s="1">
         <v>6066</v>
@@ -12002,8 +12003,8 @@
       <c r="A434">
         <v>433</v>
       </c>
-      <c r="B434" s="1" t="s">
-        <v>413</v>
+      <c r="B434" s="4" t="s">
+        <v>411</v>
       </c>
       <c r="C434" s="1">
         <v>6068</v>
@@ -12025,8 +12026,8 @@
       <c r="A435">
         <v>434</v>
       </c>
-      <c r="B435" s="1" t="s">
-        <v>414</v>
+      <c r="B435" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="C435" s="1">
         <v>6076</v>
@@ -12048,8 +12049,8 @@
       <c r="A436">
         <v>435</v>
       </c>
-      <c r="B436" s="1" t="s">
-        <v>415</v>
+      <c r="B436" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="C436" s="1">
         <v>6092</v>
@@ -12071,8 +12072,8 @@
       <c r="A437">
         <v>436</v>
       </c>
-      <c r="B437" s="1" t="s">
-        <v>416</v>
+      <c r="B437" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="C437" s="1">
         <v>6099</v>
@@ -12094,8 +12095,8 @@
       <c r="A438">
         <v>437</v>
       </c>
-      <c r="B438" s="1" t="s">
-        <v>417</v>
+      <c r="B438" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="C438" s="1">
         <v>6105</v>
@@ -12117,8 +12118,8 @@
       <c r="A439">
         <v>438</v>
       </c>
-      <c r="B439" s="1" t="s">
-        <v>418</v>
+      <c r="B439" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="C439" s="1">
         <v>6116</v>
@@ -12140,8 +12141,8 @@
       <c r="A440">
         <v>439</v>
       </c>
-      <c r="B440" s="1" t="s">
-        <v>419</v>
+      <c r="B440" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="C440" s="1">
         <v>6121</v>
@@ -12163,8 +12164,8 @@
       <c r="A441">
         <v>440</v>
       </c>
-      <c r="B441" s="1" t="s">
-        <v>420</v>
+      <c r="B441" s="4" t="s">
+        <v>418</v>
       </c>
       <c r="C441" s="1">
         <v>6128</v>
@@ -12186,8 +12187,8 @@
       <c r="A442">
         <v>441</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>421</v>
+      <c r="B442" s="4" t="s">
+        <v>419</v>
       </c>
       <c r="C442" s="1">
         <v>6135</v>
@@ -12209,8 +12210,8 @@
       <c r="A443">
         <v>442</v>
       </c>
-      <c r="B443" s="1" t="s">
-        <v>422</v>
+      <c r="B443" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="C443" s="1">
         <v>6139</v>
@@ -12232,8 +12233,8 @@
       <c r="A444">
         <v>443</v>
       </c>
-      <c r="B444" s="1" t="s">
-        <v>423</v>
+      <c r="B444" s="4" t="s">
+        <v>421</v>
       </c>
       <c r="C444" s="1">
         <v>6151</v>
@@ -12255,7 +12256,7 @@
       <c r="A445">
         <v>444</v>
       </c>
-      <c r="B445" s="1" t="s">
+      <c r="B445" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C445" s="1">
@@ -12278,7 +12279,7 @@
       <c r="A446">
         <v>445</v>
       </c>
-      <c r="B446" s="1" t="s">
+      <c r="B446" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C446" s="1">
@@ -12301,8 +12302,8 @@
       <c r="A447">
         <v>446</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>424</v>
+      <c r="B447" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="C447" s="1">
         <v>6189</v>
@@ -12324,8 +12325,8 @@
       <c r="A448">
         <v>447</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>425</v>
+      <c r="B448" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="C448" s="1">
         <v>6199</v>
@@ -12347,8 +12348,8 @@
       <c r="A449">
         <v>448</v>
       </c>
-      <c r="B449" s="1" t="s">
-        <v>426</v>
+      <c r="B449" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="C449" s="1">
         <v>6200</v>
@@ -12370,8 +12371,8 @@
       <c r="A450">
         <v>449</v>
       </c>
-      <c r="B450" s="1" t="s">
-        <v>427</v>
+      <c r="B450" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="C450" s="1">
         <v>6214</v>
@@ -12393,8 +12394,8 @@
       <c r="A451">
         <v>450</v>
       </c>
-      <c r="B451" s="1" t="s">
-        <v>200</v>
+      <c r="B451" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="C451" s="1">
         <v>6218</v>
@@ -12416,8 +12417,8 @@
       <c r="A452">
         <v>451</v>
       </c>
-      <c r="B452" s="1" t="s">
-        <v>428</v>
+      <c r="B452" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="C452" s="1">
         <v>6221</v>
@@ -12439,8 +12440,8 @@
       <c r="A453">
         <v>452</v>
       </c>
-      <c r="B453" s="1" t="s">
-        <v>429</v>
+      <c r="B453" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="C453" s="1">
         <v>6223</v>
@@ -12462,8 +12463,8 @@
       <c r="A454">
         <v>453</v>
       </c>
-      <c r="B454" s="1" t="s">
-        <v>430</v>
+      <c r="B454" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="C454" s="1">
         <v>6230</v>
@@ -12485,8 +12486,8 @@
       <c r="A455">
         <v>454</v>
       </c>
-      <c r="B455" s="1" t="s">
-        <v>431</v>
+      <c r="B455" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="C455" s="1">
         <v>6230</v>
@@ -12508,8 +12509,8 @@
       <c r="A456">
         <v>455</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>432</v>
+      <c r="B456" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="C456" s="1">
         <v>6233</v>
@@ -12531,8 +12532,8 @@
       <c r="A457">
         <v>456</v>
       </c>
-      <c r="B457" s="1" t="s">
-        <v>433</v>
+      <c r="B457" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="C457" s="1">
         <v>6235</v>
@@ -12554,8 +12555,8 @@
       <c r="A458">
         <v>457</v>
       </c>
-      <c r="B458" s="1" t="s">
-        <v>434</v>
+      <c r="B458" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="C458" s="1">
         <v>6236</v>
@@ -12577,8 +12578,8 @@
       <c r="A459">
         <v>458</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>435</v>
+      <c r="B459" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="C459" s="1">
         <v>6240</v>
@@ -12600,8 +12601,8 @@
       <c r="A460">
         <v>459</v>
       </c>
-      <c r="B460" s="1" t="s">
-        <v>436</v>
+      <c r="B460" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="C460" s="1">
         <v>6244</v>
@@ -12623,8 +12624,8 @@
       <c r="A461">
         <v>460</v>
       </c>
-      <c r="B461" s="1" t="s">
-        <v>437</v>
+      <c r="B461" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="C461" s="1">
         <v>6259</v>
@@ -12646,8 +12647,8 @@
       <c r="A462">
         <v>461</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>438</v>
+      <c r="B462" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="C462" s="1">
         <v>6246</v>
@@ -12669,8 +12670,8 @@
       <c r="A463">
         <v>462</v>
       </c>
-      <c r="B463" s="1" t="s">
-        <v>439</v>
+      <c r="B463" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="C463" s="1">
         <v>6256</v>
@@ -12692,8 +12693,8 @@
       <c r="A464">
         <v>463</v>
       </c>
-      <c r="B464" s="1" t="s">
-        <v>440</v>
+      <c r="B464" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="C464" s="1">
         <v>6254</v>
@@ -12715,7 +12716,7 @@
       <c r="A465">
         <v>464</v>
       </c>
-      <c r="B465" s="1" t="s">
+      <c r="B465" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C465" s="1">
@@ -12738,8 +12739,8 @@
       <c r="A466">
         <v>465</v>
       </c>
-      <c r="B466" s="1" t="s">
-        <v>441</v>
+      <c r="B466" s="4" t="s">
+        <v>439</v>
       </c>
       <c r="C466" s="1">
         <v>6260</v>
@@ -12761,8 +12762,8 @@
       <c r="A467">
         <v>466</v>
       </c>
-      <c r="B467" s="1" t="s">
-        <v>442</v>
+      <c r="B467" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="C467" s="1">
         <v>6271</v>
@@ -12784,8 +12785,8 @@
       <c r="A468">
         <v>467</v>
       </c>
-      <c r="B468" s="1" t="s">
-        <v>443</v>
+      <c r="B468" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="C468" s="1">
         <v>6271</v>
@@ -12807,8 +12808,8 @@
       <c r="A469">
         <v>468</v>
       </c>
-      <c r="B469" s="1" t="s">
-        <v>444</v>
+      <c r="B469" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="C469" s="1">
         <v>6273</v>
@@ -12830,8 +12831,8 @@
       <c r="A470">
         <v>469</v>
       </c>
-      <c r="B470" s="1" t="s">
-        <v>445</v>
+      <c r="B470" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="C470" s="1">
         <v>6281</v>
@@ -12853,8 +12854,8 @@
       <c r="A471">
         <v>470</v>
       </c>
-      <c r="B471" s="1" t="s">
-        <v>446</v>
+      <c r="B471" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="C471" s="1">
         <v>6288</v>
@@ -12876,8 +12877,8 @@
       <c r="A472">
         <v>471</v>
       </c>
-      <c r="B472" s="1" t="s">
-        <v>447</v>
+      <c r="B472" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="C472" s="1">
         <v>6294</v>
@@ -12899,8 +12900,8 @@
       <c r="A473">
         <v>472</v>
       </c>
-      <c r="B473" s="1" t="s">
-        <v>448</v>
+      <c r="B473" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="C473" s="1">
         <v>6292</v>
@@ -12922,8 +12923,8 @@
       <c r="A474">
         <v>473</v>
       </c>
-      <c r="B474" s="1" t="s">
-        <v>449</v>
+      <c r="B474" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="C474" s="1">
         <v>6312</v>
@@ -12945,8 +12946,8 @@
       <c r="A475">
         <v>474</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>450</v>
+      <c r="B475" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="C475" s="1">
         <v>6313</v>
@@ -12968,8 +12969,8 @@
       <c r="A476">
         <v>475</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>451</v>
+      <c r="B476" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="C476" s="1">
         <v>6312</v>
@@ -12991,8 +12992,8 @@
       <c r="A477">
         <v>476</v>
       </c>
-      <c r="B477" s="1" t="s">
-        <v>452</v>
+      <c r="B477" s="4" t="s">
+        <v>450</v>
       </c>
       <c r="C477" s="1">
         <v>6323</v>
@@ -13014,8 +13015,8 @@
       <c r="A478">
         <v>477</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>453</v>
+      <c r="B478" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="C478" s="1">
         <v>6322</v>
@@ -13037,8 +13038,8 @@
       <c r="A479">
         <v>478</v>
       </c>
-      <c r="B479" s="1" t="s">
-        <v>454</v>
+      <c r="B479" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="C479" s="1">
         <v>6327</v>
@@ -13060,8 +13061,8 @@
       <c r="A480">
         <v>479</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>455</v>
+      <c r="B480" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="C480" s="1">
         <v>6337</v>
@@ -13083,8 +13084,8 @@
       <c r="A481">
         <v>480</v>
       </c>
-      <c r="B481" s="1" t="s">
-        <v>456</v>
+      <c r="B481" s="4" t="s">
+        <v>454</v>
       </c>
       <c r="C481" s="1">
         <v>6344</v>
@@ -13106,8 +13107,8 @@
       <c r="A482">
         <v>481</v>
       </c>
-      <c r="B482" s="1" t="s">
-        <v>457</v>
+      <c r="B482" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="C482" s="1">
         <v>6348</v>
@@ -13129,8 +13130,8 @@
       <c r="A483">
         <v>482</v>
       </c>
-      <c r="B483" s="1" t="s">
-        <v>458</v>
+      <c r="B483" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="C483" s="1">
         <v>6352</v>
@@ -13152,8 +13153,8 @@
       <c r="A484">
         <v>483</v>
       </c>
-      <c r="B484" s="1" t="s">
-        <v>459</v>
+      <c r="B484" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="C484" s="1">
         <v>6364</v>
@@ -13175,8 +13176,8 @@
       <c r="A485">
         <v>484</v>
       </c>
-      <c r="B485" s="1" t="s">
-        <v>460</v>
+      <c r="B485" s="4" t="s">
+        <v>458</v>
       </c>
       <c r="C485" s="1">
         <v>6368</v>
@@ -13198,8 +13199,8 @@
       <c r="A486">
         <v>485</v>
       </c>
-      <c r="B486" s="1" t="s">
-        <v>461</v>
+      <c r="B486" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="C486" s="1">
         <v>6368</v>
@@ -13221,8 +13222,8 @@
       <c r="A487">
         <v>486</v>
       </c>
-      <c r="B487" s="1" t="s">
-        <v>462</v>
+      <c r="B487" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="C487" s="1">
         <v>6372</v>
@@ -13244,8 +13245,8 @@
       <c r="A488">
         <v>487</v>
       </c>
-      <c r="B488" s="1" t="s">
-        <v>463</v>
+      <c r="B488" s="4" t="s">
+        <v>461</v>
       </c>
       <c r="C488" s="1">
         <v>6379</v>
@@ -13267,8 +13268,8 @@
       <c r="A489">
         <v>488</v>
       </c>
-      <c r="B489" s="1" t="s">
-        <v>464</v>
+      <c r="B489" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="C489" s="1">
         <v>6389</v>
@@ -13290,8 +13291,8 @@
       <c r="A490">
         <v>489</v>
       </c>
-      <c r="B490" s="1" t="s">
-        <v>465</v>
+      <c r="B490" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="C490" s="1">
         <v>6402</v>
@@ -13313,8 +13314,8 @@
       <c r="A491">
         <v>490</v>
       </c>
-      <c r="B491" s="1" t="s">
-        <v>466</v>
+      <c r="B491" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="C491" s="1">
         <v>6405</v>
@@ -13336,8 +13337,8 @@
       <c r="A492">
         <v>491</v>
       </c>
-      <c r="B492" s="1" t="s">
-        <v>467</v>
+      <c r="B492" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="C492" s="1">
         <v>6411</v>
@@ -13359,8 +13360,8 @@
       <c r="A493">
         <v>492</v>
       </c>
-      <c r="B493" s="1" t="s">
-        <v>468</v>
+      <c r="B493" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="C493" s="1">
         <v>6418</v>
@@ -13382,8 +13383,8 @@
       <c r="A494">
         <v>493</v>
       </c>
-      <c r="B494" s="1" t="s">
-        <v>469</v>
+      <c r="B494" s="4" t="s">
+        <v>467</v>
       </c>
       <c r="C494" s="1">
         <v>6439</v>
@@ -13405,8 +13406,8 @@
       <c r="A495">
         <v>494</v>
       </c>
-      <c r="B495" s="1" t="s">
-        <v>470</v>
+      <c r="B495" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="C495" s="1">
         <v>6438</v>
@@ -13428,8 +13429,8 @@
       <c r="A496">
         <v>495</v>
       </c>
-      <c r="B496" s="1" t="s">
-        <v>471</v>
+      <c r="B496" s="4" t="s">
+        <v>469</v>
       </c>
       <c r="C496" s="1">
         <v>6449</v>
@@ -13451,8 +13452,8 @@
       <c r="A497">
         <v>496</v>
       </c>
-      <c r="B497" s="1" t="s">
-        <v>472</v>
+      <c r="B497" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="C497" s="1">
         <v>6455</v>
@@ -13474,8 +13475,8 @@
       <c r="A498">
         <v>497</v>
       </c>
-      <c r="B498" s="1" t="s">
-        <v>473</v>
+      <c r="B498" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="C498" s="1">
         <v>6457</v>
@@ -13497,8 +13498,8 @@
       <c r="A499">
         <v>498</v>
       </c>
-      <c r="B499" s="1" t="s">
-        <v>474</v>
+      <c r="B499" s="4" t="s">
+        <v>472</v>
       </c>
       <c r="C499" s="1">
         <v>6460</v>
@@ -13520,8 +13521,8 @@
       <c r="A500">
         <v>499</v>
       </c>
-      <c r="B500" s="1" t="s">
-        <v>475</v>
+      <c r="B500" s="4" t="s">
+        <v>473</v>
       </c>
       <c r="C500" s="1">
         <v>6476</v>
@@ -13543,8 +13544,8 @@
       <c r="A501">
         <v>500</v>
       </c>
-      <c r="B501" s="1" t="s">
-        <v>476</v>
+      <c r="B501" s="4" t="s">
+        <v>474</v>
       </c>
       <c r="C501" s="1">
         <v>6476</v>
@@ -13566,8 +13567,8 @@
       <c r="A502">
         <v>501</v>
       </c>
-      <c r="B502" s="1" t="s">
-        <v>477</v>
+      <c r="B502" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="C502" s="1">
         <v>6488</v>
@@ -13589,7 +13590,7 @@
       <c r="A503">
         <v>502</v>
       </c>
-      <c r="B503" s="1" t="s">
+      <c r="B503" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C503" s="1">
@@ -13612,8 +13613,8 @@
       <c r="A504">
         <v>503</v>
       </c>
-      <c r="B504" s="1" t="s">
-        <v>478</v>
+      <c r="B504" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="C504" s="1">
         <v>6554</v>
@@ -13635,8 +13636,8 @@
       <c r="A505">
         <v>504</v>
       </c>
-      <c r="B505" s="1" t="s">
-        <v>479</v>
+      <c r="B505" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="C505" s="1">
         <v>6554</v>
@@ -13658,8 +13659,8 @@
       <c r="A506">
         <v>505</v>
       </c>
-      <c r="B506" s="1" t="s">
-        <v>480</v>
+      <c r="B506" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="C506" s="1">
         <v>6566</v>
@@ -13681,8 +13682,8 @@
       <c r="A507">
         <v>506</v>
       </c>
-      <c r="B507" s="1" t="s">
-        <v>481</v>
+      <c r="B507" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="C507" s="1">
         <v>6562</v>
@@ -13704,8 +13705,8 @@
       <c r="A508">
         <v>507</v>
       </c>
-      <c r="B508" s="1" t="s">
-        <v>482</v>
+      <c r="B508" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C508" s="1">
         <v>6567</v>
@@ -13727,8 +13728,8 @@
       <c r="A509">
         <v>508</v>
       </c>
-      <c r="B509" s="1" t="s">
-        <v>483</v>
+      <c r="B509" s="4" t="s">
+        <v>481</v>
       </c>
       <c r="C509" s="1">
         <v>6569</v>
@@ -13750,8 +13751,8 @@
       <c r="A510">
         <v>509</v>
       </c>
-      <c r="B510" s="1" t="s">
-        <v>484</v>
+      <c r="B510" s="4" t="s">
+        <v>482</v>
       </c>
       <c r="C510" s="1">
         <v>6564</v>
@@ -13773,8 +13774,8 @@
       <c r="A511">
         <v>510</v>
       </c>
-      <c r="B511" s="1" t="s">
-        <v>485</v>
+      <c r="B511" s="4" t="s">
+        <v>483</v>
       </c>
       <c r="C511" s="1">
         <v>6580</v>
@@ -13796,8 +13797,8 @@
       <c r="A512">
         <v>511</v>
       </c>
-      <c r="B512" s="1" t="s">
-        <v>486</v>
+      <c r="B512" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="C512" s="1">
         <v>6586</v>
@@ -13819,8 +13820,8 @@
       <c r="A513">
         <v>513</v>
       </c>
-      <c r="B513" s="1" t="s">
-        <v>487</v>
+      <c r="B513" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="C513" s="1">
         <v>6590</v>
@@ -13842,8 +13843,8 @@
       <c r="A514">
         <v>514</v>
       </c>
-      <c r="B514" s="1" t="s">
-        <v>488</v>
+      <c r="B514" s="4" t="s">
+        <v>486</v>
       </c>
       <c r="C514" s="1">
         <v>6598</v>
@@ -13865,8 +13866,8 @@
       <c r="A515">
         <v>515</v>
       </c>
-      <c r="B515" s="1" t="s">
-        <v>489</v>
+      <c r="B515" s="4" t="s">
+        <v>487</v>
       </c>
       <c r="C515" s="1">
         <v>6596</v>
@@ -13888,8 +13889,8 @@
       <c r="A516">
         <v>516</v>
       </c>
-      <c r="B516" s="1" t="s">
-        <v>490</v>
+      <c r="B516" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="C516" s="1">
         <v>6601</v>
@@ -13911,8 +13912,8 @@
       <c r="A517">
         <v>517</v>
       </c>
-      <c r="B517" s="1" t="s">
-        <v>491</v>
+      <c r="B517" s="4" t="s">
+        <v>489</v>
       </c>
       <c r="C517" s="1">
         <v>6610</v>
@@ -13934,8 +13935,8 @@
       <c r="A518">
         <v>518</v>
       </c>
-      <c r="B518" s="1" t="s">
-        <v>492</v>
+      <c r="B518" s="4" t="s">
+        <v>490</v>
       </c>
       <c r="C518" s="1">
         <v>6613</v>
@@ -13957,8 +13958,8 @@
       <c r="A519">
         <v>519</v>
       </c>
-      <c r="B519" s="1" t="s">
-        <v>493</v>
+      <c r="B519" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="C519" s="1">
         <v>6625</v>
@@ -13980,8 +13981,8 @@
       <c r="A520">
         <v>520</v>
       </c>
-      <c r="B520" s="1" t="s">
-        <v>494</v>
+      <c r="B520" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="C520" s="1">
         <v>6625</v>
@@ -14003,8 +14004,8 @@
       <c r="A521">
         <v>521</v>
       </c>
-      <c r="B521" s="1" t="s">
-        <v>495</v>
+      <c r="B521" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="C521" s="1">
         <v>6640</v>
@@ -14026,8 +14027,8 @@
       <c r="A522">
         <v>522</v>
       </c>
-      <c r="B522" s="1" t="s">
-        <v>496</v>
+      <c r="B522" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="C522" s="1">
         <v>6650</v>
@@ -14049,8 +14050,8 @@
       <c r="A523">
         <v>523</v>
       </c>
-      <c r="B523" s="1" t="s">
-        <v>497</v>
+      <c r="B523" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="C523" s="1">
         <v>6670</v>
@@ -14072,8 +14073,8 @@
       <c r="A524">
         <v>524</v>
       </c>
-      <c r="B524" s="1" t="s">
-        <v>498</v>
+      <c r="B524" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="C524" s="1">
         <v>6685</v>
@@ -14095,8 +14096,8 @@
       <c r="A525">
         <v>525</v>
       </c>
-      <c r="B525" s="1" t="s">
-        <v>499</v>
+      <c r="B525" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="C525" s="1">
         <v>6683</v>
@@ -14118,8 +14119,8 @@
       <c r="A526">
         <v>526</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>500</v>
+      <c r="B526" s="4" t="s">
+        <v>498</v>
       </c>
       <c r="C526" s="1">
         <v>6692</v>
@@ -14141,8 +14142,8 @@
       <c r="A527">
         <v>527</v>
       </c>
-      <c r="B527" s="1" t="s">
-        <v>501</v>
+      <c r="B527" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="C527" s="1">
         <v>6699</v>
@@ -14164,8 +14165,8 @@
       <c r="A528">
         <v>528</v>
       </c>
-      <c r="B528" s="1" t="s">
-        <v>502</v>
+      <c r="B528" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="C528" s="1">
         <v>6715</v>
@@ -14187,8 +14188,8 @@
       <c r="A529">
         <v>529</v>
       </c>
-      <c r="B529" s="1" t="s">
-        <v>503</v>
+      <c r="B529" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="C529" s="1">
         <v>6738</v>
@@ -14210,8 +14211,8 @@
       <c r="A530">
         <v>530</v>
       </c>
-      <c r="B530" s="1" t="s">
-        <v>504</v>
+      <c r="B530" s="4" t="s">
+        <v>502</v>
       </c>
       <c r="C530" s="1">
         <v>6737</v>
@@ -14233,8 +14234,8 @@
       <c r="A531">
         <v>531</v>
       </c>
-      <c r="B531" s="1" t="s">
-        <v>505</v>
+      <c r="B531" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="C531" s="1">
         <v>6750</v>
@@ -14256,8 +14257,8 @@
       <c r="A532">
         <v>532</v>
       </c>
-      <c r="B532" s="1" t="s">
-        <v>506</v>
+      <c r="B532" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="C532" s="1">
         <v>6750</v>
@@ -14279,8 +14280,8 @@
       <c r="A533">
         <v>533</v>
       </c>
-      <c r="B533" s="1" t="s">
-        <v>507</v>
+      <c r="B533" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="C533" s="1">
         <v>6758</v>
@@ -14302,8 +14303,8 @@
       <c r="A534">
         <v>534</v>
       </c>
-      <c r="B534" s="1" t="s">
-        <v>508</v>
+      <c r="B534" s="4" t="s">
+        <v>506</v>
       </c>
       <c r="C534" s="1">
         <v>6774</v>
@@ -14325,8 +14326,8 @@
       <c r="A535">
         <v>535</v>
       </c>
-      <c r="B535" s="1" t="s">
-        <v>509</v>
+      <c r="B535" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="C535" s="1">
         <v>6805</v>
@@ -14348,8 +14349,8 @@
       <c r="A536">
         <v>536</v>
       </c>
-      <c r="B536" s="1" t="s">
-        <v>510</v>
+      <c r="B536" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="C536" s="1">
         <v>6818</v>
@@ -14371,8 +14372,8 @@
       <c r="A537">
         <v>537</v>
       </c>
-      <c r="B537" s="1" t="s">
-        <v>511</v>
+      <c r="B537" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="C537" s="1">
         <v>6817</v>
@@ -14394,8 +14395,8 @@
       <c r="A538">
         <v>538</v>
       </c>
-      <c r="B538" s="1" t="s">
-        <v>512</v>
+      <c r="B538" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="C538" s="1">
         <v>6827</v>
@@ -14417,8 +14418,8 @@
       <c r="A539">
         <v>539</v>
       </c>
-      <c r="B539" s="1" t="s">
-        <v>513</v>
+      <c r="B539" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="C539" s="1">
         <v>6835</v>
@@ -14440,8 +14441,8 @@
       <c r="A540">
         <v>540</v>
       </c>
-      <c r="B540" s="1" t="s">
-        <v>514</v>
+      <c r="B540" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="C540" s="1">
         <v>6843</v>
@@ -14463,8 +14464,8 @@
       <c r="A541">
         <v>541</v>
       </c>
-      <c r="B541" s="1" t="s">
-        <v>515</v>
+      <c r="B541" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="C541" s="1">
         <v>6841</v>
@@ -14486,8 +14487,8 @@
       <c r="A542">
         <v>542</v>
       </c>
-      <c r="B542" s="1" t="s">
-        <v>516</v>
+      <c r="B542" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="C542" s="1">
         <v>6843</v>
@@ -14509,8 +14510,8 @@
       <c r="A543">
         <v>543</v>
       </c>
-      <c r="B543" s="1" t="s">
-        <v>517</v>
+      <c r="B543" s="4" t="s">
+        <v>515</v>
       </c>
       <c r="C543" s="1">
         <v>6848</v>
@@ -14532,8 +14533,8 @@
       <c r="A544">
         <v>544</v>
       </c>
-      <c r="B544" s="1" t="s">
-        <v>518</v>
+      <c r="B544" s="4" t="s">
+        <v>516</v>
       </c>
       <c r="C544" s="1">
         <v>6857</v>
@@ -14555,8 +14556,8 @@
       <c r="A545">
         <v>545</v>
       </c>
-      <c r="B545" s="1" t="s">
-        <v>519</v>
+      <c r="B545" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="C545" s="1">
         <v>6862</v>
@@ -14578,8 +14579,8 @@
       <c r="A546">
         <v>546</v>
       </c>
-      <c r="B546" s="1" t="s">
-        <v>520</v>
+      <c r="B546" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="C546" s="1">
         <v>6866</v>
@@ -14601,8 +14602,8 @@
       <c r="A547">
         <v>547</v>
       </c>
-      <c r="B547" s="1" t="s">
-        <v>521</v>
+      <c r="B547" s="4" t="s">
+        <v>519</v>
       </c>
       <c r="C547" s="1">
         <v>6865</v>
@@ -14624,8 +14625,8 @@
       <c r="A548">
         <v>548</v>
       </c>
-      <c r="B548" s="1" t="s">
-        <v>522</v>
+      <c r="B548" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="C548" s="1">
         <v>6864</v>
@@ -14647,8 +14648,8 @@
       <c r="A549">
         <v>549</v>
       </c>
-      <c r="B549" s="1" t="s">
-        <v>523</v>
+      <c r="B549" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="C549" s="1">
         <v>6865</v>
@@ -14670,8 +14671,8 @@
       <c r="A550">
         <v>550</v>
       </c>
-      <c r="B550" s="1" t="s">
-        <v>524</v>
+      <c r="B550" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="C550" s="1">
         <v>6868</v>
@@ -14693,8 +14694,8 @@
       <c r="A551">
         <v>551</v>
       </c>
-      <c r="B551" s="1" t="s">
-        <v>525</v>
+      <c r="B551" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="C551" s="1">
         <v>6870</v>
@@ -14716,8 +14717,8 @@
       <c r="A552">
         <v>552</v>
       </c>
-      <c r="B552" s="1" t="s">
-        <v>526</v>
+      <c r="B552" s="4" t="s">
+        <v>524</v>
       </c>
       <c r="C552" s="1">
         <v>6871</v>
@@ -14739,8 +14740,8 @@
       <c r="A553">
         <v>553</v>
       </c>
-      <c r="B553" s="1" t="s">
-        <v>527</v>
+      <c r="B553" s="4" t="s">
+        <v>525</v>
       </c>
       <c r="C553" s="1">
         <v>6875</v>
@@ -14762,8 +14763,8 @@
       <c r="A554">
         <v>554</v>
       </c>
-      <c r="B554" s="1" t="s">
-        <v>528</v>
+      <c r="B554" s="4" t="s">
+        <v>526</v>
       </c>
       <c r="C554" s="1">
         <v>6876</v>
@@ -14785,8 +14786,8 @@
       <c r="A555">
         <v>555</v>
       </c>
-      <c r="B555" s="1" t="s">
-        <v>529</v>
+      <c r="B555" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="C555" s="1">
         <v>6882</v>
@@ -14808,8 +14809,8 @@
       <c r="A556">
         <v>556</v>
       </c>
-      <c r="B556" s="1" t="s">
-        <v>530</v>
+      <c r="B556" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="C556" s="1">
         <v>6895</v>
@@ -14831,8 +14832,8 @@
       <c r="A557">
         <v>557</v>
       </c>
-      <c r="B557" s="1" t="s">
-        <v>531</v>
+      <c r="B557" s="4" t="s">
+        <v>529</v>
       </c>
       <c r="C557" s="1">
         <v>6899</v>
@@ -14854,8 +14855,8 @@
       <c r="A558">
         <v>558</v>
       </c>
-      <c r="B558" s="1" t="s">
-        <v>532</v>
+      <c r="B558" s="4" t="s">
+        <v>530</v>
       </c>
       <c r="C558" s="1">
         <v>6905</v>
@@ -14877,8 +14878,8 @@
       <c r="A559">
         <v>559</v>
       </c>
-      <c r="B559" s="1" t="s">
-        <v>533</v>
+      <c r="B559" s="4" t="s">
+        <v>531</v>
       </c>
       <c r="C559" s="1">
         <v>6909</v>
@@ -14900,8 +14901,8 @@
       <c r="A560">
         <v>560</v>
       </c>
-      <c r="B560" s="1" t="s">
-        <v>534</v>
+      <c r="B560" s="4" t="s">
+        <v>532</v>
       </c>
       <c r="C560" s="1">
         <v>6912</v>
@@ -14923,8 +14924,8 @@
       <c r="A561">
         <v>561</v>
       </c>
-      <c r="B561" s="1" t="s">
-        <v>535</v>
+      <c r="B561" s="4" t="s">
+        <v>533</v>
       </c>
       <c r="C561" s="1">
         <v>6913</v>
@@ -14946,8 +14947,8 @@
       <c r="A562">
         <v>562</v>
       </c>
-      <c r="B562" s="1" t="s">
-        <v>536</v>
+      <c r="B562" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="C562" s="1">
         <v>6914</v>
@@ -14969,8 +14970,8 @@
       <c r="A563">
         <v>563</v>
       </c>
-      <c r="B563" s="1" t="s">
-        <v>537</v>
+      <c r="B563" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="C563" s="1">
         <v>6920</v>
@@ -14992,8 +14993,8 @@
       <c r="A564">
         <v>564</v>
       </c>
-      <c r="B564" s="1" t="s">
-        <v>538</v>
+      <c r="B564" s="4" t="s">
+        <v>536</v>
       </c>
       <c r="C564" s="1">
         <v>6920</v>
@@ -15015,8 +15016,8 @@
       <c r="A565">
         <v>565</v>
       </c>
-      <c r="B565" s="1" t="s">
-        <v>539</v>
+      <c r="B565" s="4" t="s">
+        <v>537</v>
       </c>
       <c r="C565" s="1">
         <v>6921</v>
@@ -15038,8 +15039,8 @@
       <c r="A566">
         <v>566</v>
       </c>
-      <c r="B566" s="1" t="s">
-        <v>540</v>
+      <c r="B566" s="4" t="s">
+        <v>538</v>
       </c>
       <c r="C566" s="1">
         <v>6923</v>
@@ -15061,8 +15062,8 @@
       <c r="A567">
         <v>567</v>
       </c>
-      <c r="B567" s="1" t="s">
-        <v>541</v>
+      <c r="B567" s="4" t="s">
+        <v>539</v>
       </c>
       <c r="C567" s="1">
         <v>6924</v>
@@ -15084,8 +15085,8 @@
       <c r="A568">
         <v>568</v>
       </c>
-      <c r="B568" s="1" t="s">
-        <v>542</v>
+      <c r="B568" s="4" t="s">
+        <v>540</v>
       </c>
       <c r="C568" s="1">
         <v>6935</v>
